--- a/consultations.xlsx
+++ b/consultations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ffromager\git\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613CE474-2B78-442B-8A81-CB20ABDB9437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB6503B-8A3D-422E-B7FE-2F9327051B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF39C840-99AD-4690-92F7-58A8DA767AF9}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,7 +470,7 @@
         <v>256</v>
       </c>
       <c r="C2" s="1">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D2" s="3">
         <v>44991</v>
@@ -479,7 +479,8 @@
         <v>44991</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <f>C2-B2</f>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -499,6 +500,7 @@
         <v>44984</v>
       </c>
       <c r="F3" s="1">
+        <f t="shared" ref="F3:F15" si="0">C3-B3</f>
         <v>5</v>
       </c>
     </row>
